--- a/projects/12_00_项目_AB测试/Final+Project+Results.xlsx
+++ b/projects/12_00_项目_AB测试/Final+Project+Results.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\baiduDrive\online_course\udacity\DA\projects\12_00_项目_AB测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90206D13-DCF4-4B01-93EA-1338C993E8E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Control" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Experiment" sheetId="2" r:id="rId4"/>
+    <sheet name="Control" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiment" sheetId="2" r:id="rId2"/>
+    <sheet name="Baseline_Values" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -138,20 +148,189 @@
   </si>
   <si>
     <t>Sun, Nov 16</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>licks</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>click-through-prob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ontrol</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>xperiment</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clicks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum / sub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nroll</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ross conversion</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>experiment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique cookies to view page per day:</t>
+  </si>
+  <si>
+    <t>Unique cookies to click "Start free trial" per day:</t>
+  </si>
+  <si>
+    <t>Enrollments per day:</t>
+  </si>
+  <si>
+    <t>Click-through-probability on "Start free trial":</t>
+  </si>
+  <si>
+    <t>Probability of enrolling, given click:</t>
+  </si>
+  <si>
+    <t>Probability of payment, given enroll:</t>
+  </si>
+  <si>
+    <t>Probability of payment, given click</t>
+  </si>
+  <si>
+    <t>payments</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>net conversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># less</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; Experiment(GC)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; Experiment(NC)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00000000_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +338,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -168,52 +347,350 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -229,588 +706,1266 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>7723.0</v>
+        <v>7723</v>
       </c>
       <c r="C2" s="2">
-        <v>687.0</v>
+        <v>687</v>
       </c>
       <c r="D2" s="2">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <f>D2/C2</f>
+        <v>0.1950509461426492</v>
+      </c>
+      <c r="G2">
+        <f>E2/C2</f>
+        <v>0.10189228529839883</v>
+      </c>
+      <c r="H2">
+        <f>IF(Control!F2&gt;=Experiment!F2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>IF(Control!G2&gt;=Experiment!G2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5">
+        <f>SUM(B2:B38)</f>
+        <v>345543</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:C38)</f>
+        <v>28378</v>
+      </c>
+      <c r="N2" s="6">
+        <f>M2/L2</f>
+        <v>8.2125813574576823E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>9102.0</v>
+        <v>9102</v>
       </c>
       <c r="C3" s="2">
-        <v>779.0</v>
+        <v>779</v>
       </c>
       <c r="D3" s="2">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F24" si="0">D3/C3</f>
+        <v>0.18870346598202825</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G24" si="1">E3/C3</f>
+        <v>8.9858793324775352E-2</v>
+      </c>
+      <c r="H3">
+        <f>IF(Control!F3&gt;=Experiment!F3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>IF(Control!G3&gt;=Experiment!G3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="5">
+        <f>SUM(Experiment!B2:B38)</f>
+        <v>344660</v>
+      </c>
+      <c r="M3" s="5">
+        <f>SUM(Experiment!C2:C38)</f>
+        <v>28325</v>
+      </c>
+      <c r="N3" s="6">
+        <f>M3/L3</f>
+        <v>8.2182440666163759E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>10511.0</v>
+        <v>10511</v>
       </c>
       <c r="C4" s="2">
-        <v>909.0</v>
+        <v>909</v>
       </c>
       <c r="D4" s="2">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>95</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.18371837183718373</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.10451045104510451</v>
+      </c>
+      <c r="H4">
+        <f>IF(Control!F4&gt;=Experiment!F4, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>IF(Control!G4&gt;=Experiment!G4, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="5">
+        <f>SUM(L2:L3)</f>
+        <v>690203</v>
+      </c>
+      <c r="M4" s="5">
+        <f>SUM(M2:M3)</f>
+        <v>56703</v>
+      </c>
+      <c r="N4" s="6">
+        <f>N3-N2</f>
+        <v>5.6627091586936018E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>9871.0</v>
+        <v>9871</v>
       </c>
       <c r="C5" s="2">
-        <v>836.0</v>
+        <v>836</v>
       </c>
       <c r="D5" s="2">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>105</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.18660287081339713</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.1255980861244019</v>
+      </c>
+      <c r="H5">
+        <f>IF(Control!F5&gt;=Experiment!F5, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>IF(Control!G5&gt;=Experiment!G5, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5">
+        <f>L2/L4</f>
+        <v>0.50063966688061334</v>
+      </c>
+      <c r="M5">
+        <f>M2/M4</f>
+        <v>0.50046734740666277</v>
+      </c>
+      <c r="N5" s="6">
+        <f>M4/L4</f>
+        <v>8.2154090897895257E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>10014.0</v>
+        <v>10014</v>
       </c>
       <c r="C6" s="2">
-        <v>837.0</v>
+        <v>837</v>
       </c>
       <c r="D6" s="2">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.19474313022700118</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.6463560334528072E-2</v>
+      </c>
+      <c r="H6">
+        <f>IF(Control!F6&gt;=Experiment!F6, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>IF(Control!G6&gt;=Experiment!G6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6">
+        <f>SQRT(0.5*0.5/L4)</f>
+        <v>6.0184074029432473E-4</v>
+      </c>
+      <c r="M6">
+        <f>SQRT(0.5*0.5/M4)</f>
+        <v>2.0997470796992519E-3</v>
+      </c>
+      <c r="N6" s="6">
+        <f>SQRT(N5*(1-N5)*(POWER(L2,-1)+POWER(L3,-1)))</f>
+        <v>6.6106081563872224E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>9670.0</v>
+        <v>9670</v>
       </c>
       <c r="C7" s="2">
-        <v>823.0</v>
+        <v>823</v>
       </c>
       <c r="D7" s="2">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.16767922235722965</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9.9635479951397321E-2</v>
+      </c>
+      <c r="H7">
+        <f>IF(Control!F7&gt;=Experiment!F7, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>IF(Control!G7&gt;=Experiment!G7, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <f>0.5-1.96*L6</f>
+        <v>0.49882039214902313</v>
+      </c>
+      <c r="M7">
+        <f>0.5-1.96*M6</f>
+        <v>0.49588449572378945</v>
+      </c>
+      <c r="N7" s="6">
+        <f>0-N6*1.96</f>
+        <v>-1.2956791986518956E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>9008.0</v>
+        <v>9008</v>
       </c>
       <c r="C8" s="2">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="D8" s="2">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="E8" s="2">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.19518716577540107</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.10160427807486631</v>
+      </c>
+      <c r="H8">
+        <f>IF(Control!F8&gt;=Experiment!F8, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>IF(Control!G8&gt;=Experiment!G8, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <f>0.5+1.96*L6</f>
+        <v>0.50117960785097693</v>
+      </c>
+      <c r="M8">
+        <f>0.5+1.96*M6</f>
+        <v>0.50411550427621055</v>
+      </c>
+      <c r="N8" s="6">
+        <f>0+1.96*N6</f>
+        <v>1.2956791986518956E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>7434.0</v>
+        <v>7434</v>
       </c>
       <c r="C9" s="2">
-        <v>632.0</v>
+        <v>632</v>
       </c>
       <c r="D9" s="2">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.17405063291139242</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.11075949367088607</v>
+      </c>
+      <c r="H9">
+        <f>IF(Control!F9&gt;=Experiment!F9, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>IF(Control!G9&gt;=Experiment!G9, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>8459.0</v>
+        <v>8459</v>
       </c>
       <c r="C10" s="2">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="D10" s="2">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.18958031837916064</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8.6830680173661356E-2</v>
+      </c>
+      <c r="H10">
+        <f>IF(Control!F10&gt;=Experiment!F10, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>IF(Control!G10&gt;=Experiment!G10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>10667.0</v>
+        <v>10667</v>
       </c>
       <c r="C11" s="2">
-        <v>861.0</v>
+        <v>861</v>
       </c>
       <c r="D11" s="2">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="E11" s="2">
-        <v>97.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>97</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.19163763066202091</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.11265969802555169</v>
+      </c>
+      <c r="H11">
+        <f>IF(Control!F11&gt;=Experiment!F11, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>IF(Control!G11&gt;=Experiment!G11, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <f>SUM(C2:C24)</f>
+        <v>17293</v>
+      </c>
+      <c r="M11">
+        <f>SUM(D2:D24)</f>
+        <v>3785</v>
+      </c>
+      <c r="N11">
+        <f>M11/L11</f>
+        <v>0.2188746891805933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>10660.0</v>
+        <v>10660</v>
       </c>
       <c r="C12" s="2">
-        <v>867.0</v>
+        <v>867</v>
       </c>
       <c r="D12" s="2">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>105</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.22606689734717417</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.12110726643598616</v>
+      </c>
+      <c r="H12">
+        <f>IF(Control!F12&gt;=Experiment!F12, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>IF(Control!G12&gt;=Experiment!G12, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <f>SUM(Experiment!C2:C24)</f>
+        <v>17260</v>
+      </c>
+      <c r="M12">
+        <f>SUM(Experiment!D2:D24)</f>
+        <v>3423</v>
+      </c>
+      <c r="N12">
+        <f>M12/L12</f>
+        <v>0.19831981460023174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>9947.0</v>
+        <v>9947</v>
       </c>
       <c r="C13" s="2">
-        <v>838.0</v>
+        <v>838</v>
       </c>
       <c r="D13" s="2">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E13" s="2">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>92</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.19331742243436753</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.10978520286396182</v>
+      </c>
+      <c r="H13">
+        <f>IF(Control!F13&gt;=Experiment!F13, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>IF(Control!G13&gt;=Experiment!G13, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13">
+        <f>L11+L12</f>
+        <v>34553</v>
+      </c>
+      <c r="M13">
+        <f>M11+M12</f>
+        <v>7208</v>
+      </c>
+      <c r="N13">
+        <f>N12-N11</f>
+        <v>-2.0554874580361565E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>8324.0</v>
+        <v>8324</v>
       </c>
       <c r="C14" s="2">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="D14" s="2">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.19097744360902255</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="H14">
+        <f>IF(Control!F14&gt;=Experiment!F14, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>IF(Control!G14&gt;=Experiment!G14, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <f>M13/L13</f>
+        <v>0.20860706740369866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>9434.0</v>
+        <v>9434</v>
       </c>
       <c r="C15" s="2">
-        <v>673.0</v>
+        <v>673</v>
       </c>
       <c r="D15" s="2">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="E15" s="2">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>122</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.32689450222882616</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.1812778603268945</v>
+      </c>
+      <c r="H15">
+        <f>IF(Control!F15&gt;=Experiment!F15, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f>IF(Control!G15&gt;=Experiment!G15, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15">
+        <f>0.2065*(SQRT(POWER(L11,-1)+POWER(L12,-1)))/(SQRT(POWER(4000,-1)+POWER(4000,-1)))</f>
+        <v>9.9362467393648429E-2</v>
+      </c>
+      <c r="O15">
+        <f>SQRT(N14*(1-N14)*(POWER(L11,-1)+POWER(L12,-1)))</f>
+        <v>4.3716753852259364E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>8687.0</v>
+        <v>8687</v>
       </c>
       <c r="C16" s="2">
-        <v>691.0</v>
+        <v>691</v>
       </c>
       <c r="D16" s="2">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.25470332850940663</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.18523878437047755</v>
+      </c>
+      <c r="H16">
+        <f>IF(Control!F16&gt;=Experiment!F16, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f>IF(Control!G16&gt;=Experiment!G16, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <f>N13-1.96*N15</f>
+        <v>-0.21530531067191247</v>
+      </c>
+      <c r="O16">
+        <f>N13-1.96*O15</f>
+        <v>-2.9123358335404401E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>8896.0</v>
+        <v>8896</v>
       </c>
       <c r="C17" s="2">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="D17" s="2">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>104</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.22740112994350281</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.14689265536723164</v>
+      </c>
+      <c r="H17">
+        <f>IF(Control!F17&gt;=Experiment!F17, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>IF(Control!G17&gt;=Experiment!G17, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17">
+        <f>N13+1.96*N15</f>
+        <v>0.17419556151118934</v>
+      </c>
+      <c r="O17">
+        <f>N13+1.96*O15</f>
+        <v>-1.198639082531873E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>9535.0</v>
+        <v>9535</v>
       </c>
       <c r="C18" s="2">
-        <v>759.0</v>
+        <v>759</v>
       </c>
       <c r="D18" s="2">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="E18" s="2">
-        <v>124.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>124</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.30698287220026349</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.16337285902503293</v>
+      </c>
+      <c r="H18">
+        <f>IF(Control!F18&gt;=Experiment!F18, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f>IF(Control!G18&gt;=Experiment!G18, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>9363.0</v>
+        <v>9363</v>
       </c>
       <c r="C19" s="2">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="D19" s="2">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.20923913043478262</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.12364130434782608</v>
+      </c>
+      <c r="H19">
+        <f>IF(Control!F19&gt;=Experiment!F19, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>IF(Control!G19&gt;=Experiment!G19, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>9327.0</v>
+        <v>9327</v>
       </c>
       <c r="C20" s="2">
-        <v>739.0</v>
+        <v>739</v>
       </c>
       <c r="D20" s="2">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="E20" s="2">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>86</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.26522327469553453</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.11637347767253045</v>
+      </c>
+      <c r="H20">
+        <f>IF(Control!F20&gt;=Experiment!F20, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(Control!G20&gt;=Experiment!G20, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>17293</v>
+      </c>
+      <c r="M20">
+        <f>SUM(E2:E24)</f>
+        <v>2033</v>
+      </c>
+      <c r="N20">
+        <f>M20/L20</f>
+        <v>0.11756201931417337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>9345.0</v>
+        <v>9345</v>
       </c>
       <c r="C21" s="2">
-        <v>734.0</v>
+        <v>734</v>
       </c>
       <c r="D21" s="2">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="E21" s="2">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.22752043596730245</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.10217983651226158</v>
+      </c>
+      <c r="H21">
+        <f>IF(Control!F21&gt;=Experiment!F21, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>IF(Control!G21&gt;=Experiment!G21, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21">
+        <v>17260</v>
+      </c>
+      <c r="M21">
+        <f>SUM(Experiment!E2:E24)</f>
+        <v>1945</v>
+      </c>
+      <c r="N21">
+        <f>M21/L21</f>
+        <v>0.1126882966396292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>8890.0</v>
+        <v>8890</v>
       </c>
       <c r="C22" s="2">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="D22" s="2">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>101</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.24645892351274787</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.14305949008498584</v>
+      </c>
+      <c r="H22">
+        <f>IF(Control!F22&gt;=Experiment!F22, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>IF(Control!G22&gt;=Experiment!G22, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <f>L20+L21</f>
+        <v>34553</v>
+      </c>
+      <c r="M22">
+        <f>M20+M21</f>
+        <v>3978</v>
+      </c>
+      <c r="N22">
+        <f>N21-N20</f>
+        <v>-4.8737226745441675E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>8460.0</v>
+        <v>8460</v>
       </c>
       <c r="C23" s="2">
-        <v>681.0</v>
+        <v>681</v>
       </c>
       <c r="D23" s="2">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="E23" s="2">
-        <v>93.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.22907488986784141</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.13656387665198239</v>
+      </c>
+      <c r="H23">
+        <f>IF(Control!F23&gt;=Experiment!F23, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f>IF(Control!G23&gt;=Experiment!G23, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23">
+        <f>M22/L22</f>
+        <v>0.11512748531241861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>8836.0</v>
+        <v>8836</v>
       </c>
       <c r="C24" s="2">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="D24" s="2">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="E24" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.29725829725829728</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>9.6681096681096687E-2</v>
+      </c>
+      <c r="H24">
+        <f>IF(Control!F24&gt;=Experiment!F24, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>IF(Control!G24&gt;=Experiment!G24, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24">
+        <f>SQRT(N23*(1-N23)*(POWER(L20,-1)+POWER(L21,-1)))</f>
+        <v>3.4341335129324238E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>9437.0</v>
+        <v>9437</v>
       </c>
       <c r="C25" s="2">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26">
+      <c r="G25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="5">
+        <f>SUM(H2:H24)</f>
+        <v>19</v>
+      </c>
+      <c r="I25" s="5">
+        <f>SUM(I2:I24)</f>
+        <v>13</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <f>N22-1.96*O24</f>
+        <v>-1.1604624359891718E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>9420.0</v>
+        <v>9420</v>
       </c>
       <c r="C26" s="2">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27">
+      <c r="K26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26">
+        <f>N22+1.96*O24</f>
+        <v>1.857179010803383E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>9570.0</v>
+        <v>9570</v>
       </c>
       <c r="C27" s="2">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>9921.0</v>
+        <v>9921</v>
       </c>
       <c r="C28" s="2">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>9424.0</v>
+        <v>9424</v>
       </c>
       <c r="C29" s="2">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>9010.0</v>
+        <v>9010</v>
       </c>
       <c r="C30" s="2">
-        <v>756.0</v>
+        <v>756</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>9656.0</v>
+        <v>9656</v>
       </c>
       <c r="C31" s="2">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>10419.0</v>
+        <v>10419</v>
       </c>
       <c r="C32" s="2">
-        <v>874.0</v>
+        <v>874</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>9880.0</v>
+        <v>9880</v>
       </c>
       <c r="C33" s="2">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>10134.0</v>
+        <v>10134</v>
       </c>
       <c r="C34" s="2">
-        <v>801.0</v>
+        <v>801</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>9717.0</v>
+        <v>9717</v>
       </c>
       <c r="C35" s="2">
-        <v>814.0</v>
+        <v>814</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>9192.0</v>
+        <v>9192</v>
       </c>
       <c r="C36" s="2">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>8630.0</v>
+        <v>8630</v>
       </c>
       <c r="C37" s="2">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>8970.0</v>
+        <v>8970</v>
       </c>
       <c r="C38" s="2">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -818,21 +1973,23 @@
       <c r="E40" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,581 +2005,851 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>7716.0</v>
+        <v>7716</v>
       </c>
       <c r="C2" s="2">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="D2" s="2">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <f>D2/C2</f>
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="G2">
+        <f>E2/C2</f>
+        <v>4.9562682215743441E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>9288.0</v>
+        <v>9288</v>
       </c>
       <c r="C3" s="2">
-        <v>785.0</v>
+        <v>785</v>
       </c>
       <c r="D3" s="2">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F24" si="0">D3/C3</f>
+        <v>0.14777070063694267</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G24" si="1">E3/C3</f>
+        <v>0.11592356687898089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>10480.0</v>
+        <v>10480</v>
       </c>
       <c r="C4" s="2">
-        <v>884.0</v>
+        <v>884</v>
       </c>
       <c r="D4" s="2">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2">
-        <v>79.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.16402714932126697</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>8.9366515837104074E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>9867.0</v>
+        <v>9867</v>
       </c>
       <c r="C5" s="2">
-        <v>827.0</v>
+        <v>827</v>
       </c>
       <c r="D5" s="2">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.16686819830713423</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.11124546553808948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>9793.0</v>
+        <v>9793</v>
       </c>
       <c r="C6" s="2">
-        <v>832.0</v>
+        <v>832</v>
       </c>
       <c r="D6" s="2">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.16826923076923078</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.11298076923076923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>9500.0</v>
+        <v>9500</v>
       </c>
       <c r="C7" s="2">
-        <v>788.0</v>
+        <v>788</v>
       </c>
       <c r="D7" s="2">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.16370558375634517</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.7411167512690351E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>9088.0</v>
+        <v>9088</v>
       </c>
       <c r="C8" s="2">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="D8" s="2">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.16282051282051282</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5.6410256410256411E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>7664.0</v>
+        <v>7664</v>
       </c>
       <c r="C9" s="2">
-        <v>652.0</v>
+        <v>652</v>
       </c>
       <c r="D9" s="2">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2">
-        <v>62.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.14417177914110429</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9.5092024539877307E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>8434.0</v>
+        <v>8434</v>
       </c>
       <c r="C10" s="2">
-        <v>697.0</v>
+        <v>697</v>
       </c>
       <c r="D10" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>77</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.17216642754662842</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.11047345767575323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>10496.0</v>
+        <v>10496</v>
       </c>
       <c r="C11" s="2">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="D11" s="2">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E11" s="2">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.17790697674418604</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.11395348837209303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>10551.0</v>
+        <v>10551</v>
       </c>
       <c r="C12" s="2">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="D12" s="2">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="E12" s="2">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.16550925925925927</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>8.217592592592593E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>9737.0</v>
+        <v>9737</v>
       </c>
       <c r="C13" s="2">
-        <v>801.0</v>
+        <v>801</v>
       </c>
       <c r="D13" s="2">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.15980024968789014</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>8.7390761548064924E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>8176.0</v>
+        <v>8176</v>
       </c>
       <c r="C14" s="2">
-        <v>642.0</v>
+        <v>642</v>
       </c>
       <c r="D14" s="2">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.19003115264797507</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.1059190031152648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>9402.0</v>
+        <v>9402</v>
       </c>
       <c r="C15" s="2">
-        <v>697.0</v>
+        <v>697</v>
       </c>
       <c r="D15" s="2">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2">
-        <v>94.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.27833572453371591</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.13486370157819225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>8669.0</v>
+        <v>8669</v>
       </c>
       <c r="C16" s="2">
-        <v>669.0</v>
+        <v>669</v>
       </c>
       <c r="D16" s="2">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.18983557548579971</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.1210762331838565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>8881.0</v>
+        <v>8881</v>
       </c>
       <c r="C17" s="2">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="D17" s="2">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>101</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.14574314574314573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>9655.0</v>
+        <v>9655</v>
       </c>
       <c r="C18" s="2">
-        <v>771.0</v>
+        <v>771</v>
       </c>
       <c r="D18" s="2">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="E18" s="2">
-        <v>119.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>119</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.27626459143968873</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.15434500648508431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>9396.0</v>
+        <v>9396</v>
       </c>
       <c r="C19" s="2">
-        <v>736.0</v>
+        <v>736</v>
       </c>
       <c r="D19" s="2">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.22010869565217392</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.16304347826086957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>9262.0</v>
+        <v>9262</v>
       </c>
       <c r="C20" s="2">
-        <v>727.0</v>
+        <v>727</v>
       </c>
       <c r="D20" s="2">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="E20" s="2">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.27647867950481431</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.13204951856946354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>9308.0</v>
+        <v>9308</v>
       </c>
       <c r="C21" s="2">
-        <v>728.0</v>
+        <v>728</v>
       </c>
       <c r="D21" s="2">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>67</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.28434065934065933</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>9.2032967032967039E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>8715.0</v>
+        <v>8715</v>
       </c>
       <c r="C22" s="2">
-        <v>722.0</v>
+        <v>722</v>
       </c>
       <c r="D22" s="2">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2">
-        <v>123.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>123</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.25207756232686979</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.17036011080332411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>8448.0</v>
+        <v>8448</v>
       </c>
       <c r="C23" s="2">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="D23" s="2">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="E23" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.20431654676258992</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.14388489208633093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>8836.0</v>
+        <v>8836</v>
       </c>
       <c r="C24" s="2">
-        <v>724.0</v>
+        <v>724</v>
       </c>
       <c r="D24" s="2">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.25138121546961328</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.14226519337016574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>9359.0</v>
+        <v>9359</v>
       </c>
       <c r="C25" s="2">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>9427.0</v>
+        <v>9427</v>
       </c>
       <c r="C26" s="2">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2">
-        <v>9633.0</v>
+        <v>9633</v>
       </c>
       <c r="C27" s="2">
-        <v>808.0</v>
+        <v>808</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="2">
-        <v>9842.0</v>
+        <v>9842</v>
       </c>
       <c r="C28" s="2">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2">
-        <v>9272.0</v>
+        <v>9272</v>
       </c>
       <c r="C29" s="2">
-        <v>767.0</v>
+        <v>767</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="2">
-        <v>8969.0</v>
+        <v>8969</v>
       </c>
       <c r="C30" s="2">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>9697.0</v>
+        <v>9697</v>
       </c>
       <c r="C31" s="2">
-        <v>850.0</v>
+        <v>850</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>10445.0</v>
+        <v>10445</v>
       </c>
       <c r="C32" s="2">
-        <v>851.0</v>
+        <v>851</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="2">
-        <v>9931.0</v>
+        <v>9931</v>
       </c>
       <c r="C33" s="2">
-        <v>831.0</v>
+        <v>831</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>10042.0</v>
+        <v>10042</v>
       </c>
       <c r="C34" s="2">
-        <v>802.0</v>
+        <v>802</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>9721.0</v>
+        <v>9721</v>
       </c>
       <c r="C35" s="2">
-        <v>829.0</v>
+        <v>829</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2">
-        <v>9304.0</v>
+        <v>9304</v>
       </c>
       <c r="C36" s="2">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="2">
-        <v>8668.0</v>
+        <v>8668</v>
       </c>
       <c r="C37" s="2">
-        <v>724.0</v>
+        <v>724</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="2">
-        <v>8988.0</v>
+        <v>8988</v>
       </c>
       <c r="C38" s="2">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1459EE96-9CB4-4E6B-AF7E-851492B5F3B8}">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <f>40000</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">B3/B2</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <f>B6*B7</f>
+        <v>0.10931249999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>